--- a/docs/quizsheets/mada_data_finding_wrangling_student.xlsx
+++ b/docs/quizsheets/mada_data_finding_wrangling_student.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>If you have a dataset with weights of all kinds of mammals, and one of the values is 300,000lb, is that a clear outlier?</t>
+          <t>If you have a dataset with weights of all kinds of mammals, and one of the values is 300,000lb, is that an obvious faulty entry that should be removed?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>If you have a dataset with lenghts of all kinds of mammals, and one the values is 0.0001, is that a clear outlier? (Read the question very carefully. And no, I didn't forget anything).</t>
+          <t>If you have a dataset with lengths of all kinds of mammals, and one the values is 0.0001, is that a clear outlier? (Read the question very carefully. And no, I didn't forget anything).</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/docs/quizsheets/mada_data_finding_wrangling_student.xlsx
+++ b/docs/quizsheets/mada_data_finding_wrangling_student.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Among these R data types, which one is the most flexible? A) list, B) matrix, C) vector, D) string</t>
+          <t>Among these R data structures, which one is the most flexible? A) list, B) matrix, C) vector, D) factor</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
